--- a/data/MCQs_test_16.xlsx
+++ b/data/MCQs_test_16.xlsx
@@ -60,7 +60,7 @@
 v. nicht nach Art. 102 Abs. 1 StGB bestraft werden, wenn die Anlasstat nicht schuldhaft begangen worden ist.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements concerning the principle of the separation of powers on the federal level are correct:
+    <t>Please indicate which of the following statements concerning the principle of the separation of powers on the federal level are correct:
 i. The Federal Assembly has the last word on the constitutionality of new acts which it puts into force (subject to a referendum if requested by the people). It is not possible for the Federal Supreme Court to declare a federal act put into force by the Federal Assembly invalid.
 ii. The federal judges are elected on the basis of party membership. The term of office is six years, with the possibility to be re-elected. This combination – party membership and a relatively short term of office – is not unproblematic with a view to the judges’ independence.
 iii. The Federal Council consists of seven members which are elected by the Federal Assembly. Re-elections are possible and usually occur as a matter of routine.
@@ -96,7 +96,7 @@
 iv. The international community formally recognized the neutrality of Switzerland with the Peace of Westphalia in 1648.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements about the Federal Assembly, the Federal Council and the Federal Supreme Court are correct:
+    <t>Please indicate which of the following statements about the Federal Assembly, the Federal Council and the Federal Supreme Court are correct:
 i. There is only limited constitutional review in Switzerland. The Federal Supreme Court does, however, hear cases in which it is called upon to review federal acts in light of the European Convention on Human Rights (ECHR).
 ii. The Federal Council consists of a Prime Minister and six other ministers. The Prime Minister represents Switzerland abroad and enjoys special powers. He/she can dissolve the Federal Assembly and thus trigger general elections
 iii. Acts adopted by the Federal Assembly can be challenged before the Federal Supreme Court, and the Supreme Court can annul Acts if they violate the Constitution (this is also known as constitutional review).
@@ -118,7 +118,7 @@
 iv. Richtet eine Kapitalgesellschaft geldwerte Vorteile an einen Verwandten eines Anteilsinhabers aus, sind diese Vorteile nach der Dreieckstheorie steuerlich in einem ersten Schritt als Ertrag aus beweglichem Vermögen beim Beteiligungsinhaber zu erfassen.</t>
   </si>
   <si>
-    <t>The Second Division of the Swiss Code of Obligations covers types of contractual relationship. Please indicate whether the following statements are correct:
+    <t>The Second Division of the Swiss Code of Obligations covers types of contractual relationship. Please indicate which of the following statements are correct:
 i. The essential characteristics of a contract for work and services are the contractor’s duty to provide a certain result in the form of the agreed outcome.
 ii. In any case a contract you conclude falls under one of the types in the second division.
 iii. Each type of contractual relationship in the Second Division is characterized by standard principal obligations of the contractual parties.
@@ -160,7 +160,7 @@
 iv. Caroline hat den Tatbestand der Widerhandlung gegen das Betäubungsmittelgesetz i.S.v. Art. 19 Abs. 1 Bst. c BetmG i.V.m. Art. 19 Abs. 2 Bst. a BetmG erfüllt.</t>
   </si>
   <si>
-    <t>Y is 13 years old and attends public elementary school. The government of the Canton where Y lives issued a disciplinary code in the form of an ordinance. § 25 of the ordinance states that students “may be suspended from school for up to six months in case they disturb class.” One day, Y throws a paper plane at a classmate during class. The classmate is not injured from the incident. In the following, the headmaster of the school bans Y from school for five months. Please indicate whether the following statements are correct:
+    <t>Y is 13 years old and attends public elementary school. The government of the Canton where Y lives issued a disciplinary code in the form of an ordinance. § 25 of the ordinance states that students “may be suspended from school for up to six months in case they disturb class.” One day, Y throws a paper plane at a classmate during class. The classmate is not injured from the incident. In the following, the headmaster of the school bans Y from school for five months. Please indicate which of the following statements are correct:
 i. As is the case with all disciplinary measures in public schools, the suspension of Y qualifies as real act. Thus, no administrative decision must be issued.
 ii. There is a high chance that an appeal body finds the school suspension to violate the principle of proportionality.
 iii. It is an important question under which requirements a school suspension may be ordered. Thus, these requirements must be contained in an ordinance.
@@ -632,7 +632,7 @@
 v. Fritz hat den qualifizierten Tatbestand gemäss Art. 118 Abs. 3 AuG erfüllt, da er sich von Michelle monatlich CHF 500 auszahlen lässt.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements concerning the principle of the separation of powers on the federal level are correct:
+    <t>Please indicate which of the following statements concerning the principle of the separation of powers on the federal level are correct:
 i. The Federal Council consists of seven members which are elected by the Federal Assembly. Re-elections are possible and usually occur as a matter of routine.
 ii. The Federal Assembly has the last word on the constitutionality of new acts which it puts into force (subject to a referendum if requested by the people). It is not possible for the Federal Supreme Court to declare a federal act put into force by the Federal Assembly invalid.
 iii. The federal judges are elected on the basis of party membership. The term of office is six years, with the possibility to be re-elected. This combination – party membership and a relatively short term of office – is not unproblematic with a view to the judges’ independence.
@@ -649,7 +649,7 @@
   <si>
     <t>Am 28. Juni 2016 hat das Bundesgericht ein Urteil in der Streitsache Gaba/WEKO gefällt.
 Gaba (heute Colgate-Palmolive Europe Sàrl) entwickelt und vertreibt Mund- und Zahnpflegeprodukte, u.a. die Zahnpasta „Elmex“.
-Stimmen Sie den nachfolgenden Aussagen betreffend dieses „Elmex“-Urteil zu oder nicht zu?
+Welche(r) der nachfolgenden Aussagen betreffend dieses „Elmex“-Urteil stimmen Sie zu?
 i. Die Beschwerdeführerin Gaba ist unterlegen und die Beschwerde wurde abgewiesen.
 ii. Hinsichtlich der Sanktionsfolge von Kartellrechtsverstössen äusserte sich das Urteil dahingehend, dass… direkte Sanktionen auch dann ausgesprochen werden können, wenn eine Abrede einem Vermutungstatbestand unterliegt, die Vermutung (der Beseitigung wirksamen Wettbewerbs) aber widerlegt werden kann.
 iii. Das Urteil des BGer betrifft die Auslegung des Vermutungstatbestandes in Art. 5 Abs. 3 KG.
@@ -1264,7 +1264,7 @@
   </si>
   <si>
     <t>Article 1 of the Swiss Civil Code can be regarded as the civil law’s expression of the constitutionally
-protected and fundamental principle of the rule of law. Please indicate whether the following
+protected and fundamental principle of the rule of law. Please indicate which of the following
 statements concerning its provisions are correct:
 i. In the absence of customary law, the court shall decide in accordance with
 the law.
@@ -1354,7 +1354,7 @@
 iv. ist von der erkennungsdienstlichen Erfassung zu unterscheiden.</t>
   </si>
   <si>
-    <t>The rise of legislation was a defining element of modern legal Swiss tradition. Please indicate whether the following statements are correct:
+    <t>The rise of legislation was a defining element of modern legal Swiss tradition. Please indicate which of the following statements are correct:
 i. 19th century Swiss constitutional laws as the federal constitution of 1848 and 1874 included already fundamental rights.
 ii. Laws and legislation were present in Swiss legal history only after 1798 and the emergence of the Helvetic Republic.
 iii. Swiss codifications of law were strongly shaped by foreign legal traditions particularly from Austria, France and Germany.
@@ -1368,7 +1368,7 @@
 iv. Hong Kong has its own legal system, meaning that the laws of the PRC do not apply in Hong Kong.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements are correct. The principle of proportionality...:
+    <t>Please indicate which of the following statements are correct. The principle of proportionality...:
 i. ... is applicable only to cases involving taxes.
 ii. ... is explicitly required to be respected in cases where fandamental rights are restricted.
 iii. ... binds the cantonal legislator.
@@ -1433,7 +1433,7 @@
 iv. This rule allows the courts not to apply the wording of the provisions of the Sherman Act to all offenses strictly but only to the so called “hard core” violations.</t>
   </si>
   <si>
-    <t>The rise of legislation was a defining element of modern legal Swiss tradition. Please indicate whether the following statements are correct:
+    <t>The rise of legislation was a defining element of modern legal Swiss tradition. Please indicate which of the following statements are correct:
 i. By the late 19th century Swiss cantons ceased their legislator power to the federal level.
 ii. Codifications of law emerged in Switzerland during the 19th century first on a federal level.
 iii. 19th century Swiss constitutional laws as the federal constitution of 1848 and 1874 included already fundamental rights.
@@ -1935,7 +1935,7 @@
 v. kann nach der Praxis des Bundesgerichts bereits durch eine einzige Bankrotthandlung, wie bspw. eine gewagte Spekulation, erfüllt sein.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements about civil procedure in Switzerland are correct:
+    <t>Please indicate which of the following statements about civil procedure in Switzerland are correct:
 i. In Switzerland, it is possible to obtain the execution of money debts without a prior judgment if the debtor makes no objection.
 ii. Swiss national law is restrictive in allowing the recognition and enforcement of foreign judgments given against defendants who are domiciled in Switzerland.
 iii. In Switzerland, pre-trial conciliation is mandatory in every civil case.
@@ -2009,7 +2009,7 @@
 iv. Aktien können höchstens zu den Anschaffungskosten bilanziert werden.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements are correct: Roman Law …
+    <t>Please indicate which of the following statements are correct: Roman Law …
 i. … was mostly based on unwritten customs, applied with discretional freedom for each case by the judge.
 ii. … never knew any sort of official compilation.
 iii. … had absolute binding force for the jurisdictional magistrates, like the praetors.
@@ -2053,7 +2053,7 @@
 iv. The validity of ownership transfer by means of possession depends on the validity of the underlying contract.</t>
   </si>
   <si>
-    <t>Justice is regarded as a central purpose of the law. There has been a rich and intensive cross-cultural debate about justice since antiquity. Please indicate whether the following statements about the theory of justice are correct:
+    <t>Justice is regarded as a central purpose of the law. There has been a rich and intensive cross-cultural debate about justice since antiquity. Please indicate which of the following statements about the theory of justice are correct:
 i. In the contemporary theory of justice (for example Rawls’ theory), liberty – rather than equality – is the guiding principle.
 ii. Since antiquity, justice has been identified with equality.
 iii. A central element of the theory of justice of Socrates, Plato and Aristotle is the concept that justice is a matter of insight, not of subjective opinion.
@@ -3054,7 +3054,7 @@
 iv. Liberalisierung des Handels mit Waren und Dienstleistungen zwischen Festland China und Hong Kong</t>
   </si>
   <si>
-    <t>Y is 13 years old and attends public elementary school. The government of the Canton where Y lives issued a disciplinary code in the form of an ordinance. § 25 of the ordinance states that students “may be suspended from school for up to six months in case they disturb class.” One day, Y throws a paper plane at a classmate during class. The classmate is not injured from the incident. In the following, the headmaster of the school bans Y from school for five months. Please indicate whether the following statements are correct:
+    <t>Y is 13 years old and attends public elementary school. The government of the Canton where Y lives issued a disciplinary code in the form of an ordinance. § 25 of the ordinance states that students “may be suspended from school for up to six months in case they disturb class.” One day, Y throws a paper plane at a classmate during class. The classmate is not injured from the incident. In the following, the headmaster of the school bans Y from school for five months. Please indicate which of the following statements are correct:
 i. The suspension of Y from school must be ordered in the form of an administrative decision because it is deliberately aimed at the restriction of Y’s right to basic education according to Article 19 of the Federal Constitution.
 ii. It is an important question under which requirements a school suspension may be ordered. Thus, these requirements must be contained in an ordinance.
 iii. There is a high chance that an appeal body finds the school suspension to violate the principle of proportionality.
@@ -3168,7 +3168,7 @@
 iv. On the cantonal level, Thomas is subject to the net wealth tax. The applicable net wealth tax rate of the Canton of Zurich amounts to 2.3 ‰ whereas the applicable net wealth tax rate of the Canton of Zug would amount to 1.0 ‰. Thomas is of the opinion that these different tax rates infringe the Federal Constitution.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements concerning Switzerland’s direct democracy are correct:
+    <t>Please indicate which of the following statements concerning Switzerland’s direct democracy are correct:
 i. Referenda against the adoption of new acts by the Federal Assembly (Parliament) are advisory, i.e. the Federal Assembly must take the result into account, but it is not bound by it.
 ii. The option for 50’000 citizens to request a vote on the planned enactment of a new act modifies the representative system. It is an important instrument of control of, and opposition against, the Federal Assembly, and it is one of the reasons why the Swiss democracy is often referred to as a “consensus-oriented democracy”.
 iii. A popular initiative which envisages the introduction of a new provision into the Constitution violating international human rights law (such as the European Convention on Human Rights, ECHR) must be declared invalid by the Federal Assembly and would not be put to the vote of the people and the cantons.
@@ -3184,7 +3184,7 @@
 v. Switzerland is a party to the Council of Europe, but is not bound by the European Convention on Human Rights (ECHR).</t>
   </si>
   <si>
-    <t>Justice is regarded as a central purpose of the law. There has been a rich and intensive cross-cultural debate about justice since antiquity. Please indicate whether the following statements about the theory of justice are correct:
+    <t>Justice is regarded as a central purpose of the law. There has been a rich and intensive cross-cultural debate about justice since antiquity. Please indicate which of the following statements about the theory of justice are correct:
 i. According to the much criticised principle of proportional equality, grading the worst exam with the best score is just.
 ii. Since antiquity, justice has been identified with equality.
 iii. The principle of proportional equality helps explain why inequality of results can be just.
@@ -3213,7 +3213,7 @@
 iv. eine für die R-AG wichtige Maschine erwirbt und bezahlt (Zug um Zug), macht er sich allein deshalb nicht notwendigerweise strafbar.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements about civil procedure in Switzerland are correct:
+    <t>Please indicate which of the following statements about civil procedure in Switzerland are correct:
 i. The rules of the Swiss Code of Civil Procedure on territorial jurisdiction were influenced by the Lugano Convention.
 ii. In Switzerland, judges are often appointed on the basis of their affiliation with a political party.
 iii. In Switzerland, judges tend to get very actively involved in the establishment of the facts in civil cases.
@@ -3260,7 +3260,7 @@
 v. Good faith and indication</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements are correct:
+    <t>Please indicate which of the following statements are correct:
 Real securities, such as pledge on movable property (pignus)…
 i. … tend to depend on the existence of the secured debt for their effective constitution: s.c. 'genetic' accessority.
 ii. … are today in all European legal systems wholly independent from birth and subsistence of the secured obligation.
@@ -3283,7 +3283,7 @@
 v. Die echte Konkurrenz führt nur zur Strafschärfung, wenn es um gleichartige Delikte geht. Bei verschiedenartigen führt sie zur Strafmilderung.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements are correct:
+    <t>Please indicate which of the following statements are correct:
 i. As a rule, an appeal against a decision of a Cantonal Administrative Court must be filed to the Swiss Federal Administrative Court. The appeal may be lodged to the Swiss Federal Supreme Court only in a second step.
 ii. As a rule, an appeal against a decision of a Cantonal Administrative Court must be brought directly to the Swiss Federal Supreme Court.
 iii. In general, there are no legal remedies on the federal level against decisions of Cantonal Administrative Courts.
@@ -3395,7 +3395,7 @@
 v. Nach dem 18. Altersjahr darf der Jugendliche selber entscheiden, ob er die Massnahme weiterführt.</t>
   </si>
   <si>
-    <t>Human rights are of foundational importance for the current civilisation of law. Please indicate whether the following statements about human rights are correct:
+    <t>Human rights are of foundational importance for the current civilisation of law. Please indicate which of the following statements about human rights are correct:
 i. Agency, personhood, needs or capabilities play no role in current human rights theory.
 ii. Human rights can only be based on religious faith. There is consequently no point of methodological secularism.
 iii. According to Kant’s principle of humanity, human trafficking can be justified.
@@ -3452,14 +3452,14 @@
 iv. Intention is defined in the specific part of the Criminal Code.</t>
   </si>
   <si>
-    <t>Marcus and Susanne are married and live in Zurich (Canton of Zurich). Both work in Zurich. Marcus is a high school teacher, Susanne works as a market analyst for a Swiss bank. They have some questions regarding the tax return they have to complete for the income tax 2018. Please indicate whether the following statements are correct:
+    <t>Marcus and Susanne are married and live in Zurich (Canton of Zurich). Both work in Zurich. Marcus is a high school teacher, Susanne works as a market analyst for a Swiss bank. They have some questions regarding the tax return they have to complete for the income tax 2018. Please indicate which of the following statements are correct:
 i. Marcus and Susanne believe that a joint taxation on the federal level will most likely lead to a higher income tax burden than separate taxation.
 ii. On the cantonal level, Marcus and Susanne are subjects to the net wealth tax. The applicable net wealth tax rate of the Canton of Zurich amounts to 2.3 ‰ whereas the applicable net wealth tax rate of the Canton of Zug would amount to 1.0 ‰. They are of the opinion that these different tax rates infringe the Federal Constitution.
 iii. In spring, Susanne worked for 3 month for the bank's Geneva office (Canton of Geneva). Her entire income from employment that she earned in 2018 is still taxable in the Canton of Zurich.
 iv. During the summer, Marcus attended an intensive 5-week English language course because he would like to participate in an international teacher exchange programme that would give him the opportunity to teach for half a year at a high school in South Africa. He can deduct the costs for the language course from his taxable income.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements about legal sociology are correct:
+    <t>Please indicate which of the following statements about legal sociology are correct:
 i. Legal science as a sub-domain of Sociology is well suited to reveal the difference between „is“ and „ought“.
 ii. Legal Sociology develops theories which offer a better understanding of the law’s workings and its impact on society.
 iii. As opposed to positivistic sciences, the method of law is objective and value-neutral.
@@ -3524,7 +3524,7 @@
 iv. „Gaba“ verbessert die Position der Kartellbehörde bei der Verfolgung wettbewerbswidriger Vereinbarungen.</t>
   </si>
   <si>
-    <t>Anne lives in Zurich (Canton of Zurich) and works as a law clerk in Bern (Canton of Bern). She commutes daily to Bern. She would like to know whether the different items of income she earned in 2017 are subject to the federal and/or cantonal income taxes. Please indicate whether the following statements are correct:
+    <t>Anne lives in Zurich (Canton of Zurich) and works as a law clerk in Bern (Canton of Bern). She commutes daily to Bern. She would like to know whether the different items of income she earned in 2017 are subject to the federal and/or cantonal income taxes. Please indicate which of the following statements are correct:
 i. Anne owns a cottage in the mountains, situated in the Canton of Nidwalden. The rental income derived from this cottage is subject to the federal income tax and the income tax of the Canton of Nidwalden.
 ii. Anne derived dividends from a participation in a French company. The dividends are exempted from Swiss federal and cantonal income taxes.
 iii. Anne inherited a higher amount of money from her deceased uncle, who also lived in the Canton of Zurich. She has to pay federal income tax and cantonal inheritance tax on the inheritance.
@@ -3556,7 +3556,7 @@
   <si>
     <t>Am 28. Juni 2016 hat das Bundesgericht ein Urteil in der Streitsache Gaba/WEKO gefällt.
 Gaba (heute Colgate-Palmolive Europe Sàrl) entwickelt und vertreibt Mund- und Zahnpflegeprodukte, u.a. die Zahnpasta „Elmex“.
-Stimmen Sie den nachfolgenden Aussagen betreffend dieses „Elmex“-Urteil zu oder nicht zu? 
+Welche(r) der nachfolgenden Aussagen betreffend dieses „Elmex“-Urteil stimmen Sie zu? 
 i. Mit dem Urteil des BGer ist neu geklärt, dass… Abreden, die vermutungsweise den wirksamen Wettbewerb beseitigen nicht aus Gründen der wirtschaftlichen Effizienz gerechtfertigt werden können.
 ii. Die Beschwerdeführerin Gaba ist unterlegen und die Beschwerde wurde abgewiesen.
 iii. Hinsichtlich der Sanktionsfolge von Kartellrechtsverstössen äusserte sich das Urteil dahingehend, dass… direkte Sanktionen auch dann ausgesprochen werden können, wenn eine Abrede einem Vermutungstatbestand unterliegt, die Vermutung (der Beseitigung wirksamen Wettbewerbs) aber widerlegt werden kann.
@@ -3767,7 +3767,7 @@
 v. It is possible for parties in Switzerland to litigate in person (i.e. without being represented by a lawyer) before all civil courts including the Federal Court.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements are correct:
+    <t>Please indicate which of the following statements are correct:
 Real securities, such as pledge on movable property (pignus)…
 i. … tended under Roman law to be lost together with the credit only if the latter was extinguished with satisfaction of the creditor's interests.
 ii. … behaved as 'accessories' more absolutely in Roman law than they do today in Swiss law.
@@ -3935,7 +3935,7 @@
 v. kann sich der Handelsregisterführer strafbar machen.</t>
   </si>
   <si>
-    <t>The Swiss Code of Obligations is governed by different principles. Please indicate whether the following statements are correct:
+    <t>The Swiss Code of Obligations is governed by different principles. Please indicate which of the following statements are correct:
 i. Swiss Company Law is governed by the freedom to create any kind of company.
 ii. Freedom of Contract is a concept inherent to Swiss Contract Law.
 iii. Freedom of Contract means e.g. that one can establish the contracts content without any limits.
@@ -3957,7 +3957,7 @@
 v. Human rights are a modern invention.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements are correct:
+    <t>Please indicate which of the following statements are correct:
 i. As a rule, an appeal against a decision of a Cantonal Administrative Court must be filed to the Swiss Federal Administrative Court. The appeal may be lodged to the Swiss Federal Supreme Court only in a second step.
 ii. When considering an appeal against a decision of a Cantonal Administrative Court, the Swiss Federal Supreme Court does, in principle, not review whether the Cantonal Administrative Court correctly interpreted cantonal law.
 iii. In general, there are no legal remedies on the federal level against decisions of Cantonal Administrative Courts.
@@ -4065,7 +4065,7 @@
 iv. Die BlizzZ GmbH muss eine Ordnungsbusse von CHF 250 bezahlen.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements about civil procedure in Switzerland are correct:
+    <t>Please indicate which of the following statements about civil procedure in Switzerland are correct:
 i. In Switzerland, pre-trial conciliation is mandatory in every civil case.
 ii. In Switzerland, it is possible in certain cases to become subject to bankruptcy proceedings without being insolvent.
 iii. In Switzerland, it is possible to obtain the execution of money debts without a prior judgment if the debtor makes no objection.
@@ -4152,7 +4152,7 @@
 v. Berufliche Vorsorge umfasst alle Massnahmen auf kollektiver Basis, die den älteren Menschen, den Hinterbliebenen und Invaliden beim Eintreten eines Versicherungsfalles (Alter, Tod oder Invalidität) zusammen mit den Leistungen der eidgenössischen Alters-, Hinterlassenen- und Invalidenversicherung (AHV/IV) die Fortsetzung der gewohnten Lebenshaltung in angemessener Weise erlauben. Die ESTV präzisiert die Grundsätze der Angemessenheit, der Kollektivität, der Gleichbehandlung, der Planmässigkeit sowie des Versicherungsprinzips.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements about the Federal Assembly, the Federal Council and the Federal Supreme Court are correct:
+    <t>Please indicate which of the following statements about the Federal Assembly, the Federal Council and the Federal Supreme Court are correct:
 i. Acts adopted by the Federal Assembly can be challenged before the Federal Supreme Court, and the Supreme Court can annul Acts if they violate the Constitution (this is also known as constitutional review).
 ii. There is only limited constitutional review in Switzerland. The Federal Supreme Court does, however, hear cases in which it is called upon to review federal acts in light of the European Convention on Human Rights (ECHR).
 iii. It is a Swiss particularity that all major political parties are represented in the Federal Council. To this effect, the so-called magic formula was established (through practice, rather than being based on an explicit provision in the Constitution).
@@ -4309,7 +4309,7 @@
   </si>
   <si>
     <t>Article 1 of the Swiss Civil Code can be regarded as the civil law’s expression of the constitutionally
-protected and fundamental principle of the rule of law. Please indicate whether the following
+protected and fundamental principle of the rule of law. Please indicate which of the following
 statements concerning its provisions are correct:
 i. In the absence of customary law, the court shall decide in accordance with
 the law.
@@ -4342,7 +4342,7 @@
 iv. Paying a remuneration is in any case compulsory in order for a contract to be characterised as a simple agency contract.</t>
   </si>
   <si>
-    <t>Nullity and defeasibility of a contract are two different concepts. Please indicate whether the following statements are correct:
+    <t>Nullity and defeasibility of a contract are two different concepts. Please indicate which of the following statements are correct:
 i. Diego sells Armando his dog. But that dog is not available: it had died one week before the contract was concluded. That is a contract with an impossible content and therefore it is null/void.
 ii. A contract for the sale of immovable property is only valid if it was done as a public deed (Art. 216 para. 1 CO).
 iii. According to Art. 20 para. 1 CO, a sale contract concerning cocaine (an illegal drug) is not null/void.
@@ -4402,7 +4402,7 @@
 iv. Switzerland consists of 26 Cantons (whereby six Cantons are so-called half-Cantons).</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements about criminal procedure in Switzerland are correct:
+    <t>Please indicate which of the following statements about criminal procedure in Switzerland are correct:
 i. In every criminal case which proceeds to court, there are always three parties: namely, the prosecutor, the accused and the private claimant.
 ii. The accused must be represented by a lawyer after the first court hearing: the defence lawyer may be appointed by the prosecutor at this stage.
 iii. The private claimant can request a specific sentence for the accused and can challenge the prosecution’s decision to drop any charges.
@@ -4598,7 +4598,7 @@
 iv. Je schwerer die zu beurteilende Straftat ist, desto eher überwiegt nach der bundesgerichtlichen Rechtsprechung das öffentliche Interesse an der Wahrheitsfindung gegenüber dem privaten Interesse des Beschuldigten an der Unverwertbarkeit des fraglichen Beweises.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements about civil procedure in Switzerland are correct:
+    <t>Please indicate which of the following statements about civil procedure in Switzerland are correct:
 i. In Switzerland, opinions delivered by party-appointed experts qualify as evidence in civil proceedings.
 ii. Before some Swiss civil courts, parties cannot litigate without being represented by a lawyer.
 iii. In Switzerland, judges tend to get very actively involved in the establishment of the facts in civil cases.
@@ -4697,7 +4697,7 @@
 v. Bei selbständiger Erwerbstätigkeit dürfen die Zuwendungen an Vorsorgeeinrichtungen zugunsten des eigenen Personals nicht abgezogen werden.</t>
   </si>
   <si>
-    <t>Part 4 of the Swiss Civil Code contains rules regarding, among others, ownership, limited rights in rem, possession. Please indicate whether the following statements concerning property law are correct:
+    <t>Part 4 of the Swiss Civil Code contains rules regarding, among others, ownership, limited rights in rem, possession. Please indicate which of the following statements concerning property law are correct:
 i. Swiss property law does not follow a strict principle of numerus clausus of rights in rem.
 ii. Real rights have legal effect only between the parties of a contract or other bilateral legal relationship.
 iii. More than one person is able to possess the same chattel at the same time.
@@ -4818,7 +4818,7 @@
 iv. Eine gegen Art. 127 Abs. 3 BV verstossende virtuelle Doppelbesteuerung liegt vor, wenn ein Kanton die geltenden Kollisionsnormen verletzt, dadurch seine Steuerhoheit überschreitet und eine Steuer erhebt, die einem anderen Kanton zusteht.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements concerning fundamental rights are correct:
+    <t>Please indicate which of the following statements concerning fundamental rights are correct:
 i. The fight of the Swiss women for equal treatment with respect to political rights was won as late as 1971 (federal level) and 1990 (Canton of Appenzell Innerrhoden). Before, women could not participate in elections and referenda.
 ii. When an individual invokes in a case a fundamental right which is enshrined in the ECHR, the Federal Supreme Court is ready to review a federal act as to its conformity with the ECHR; in case the Federal Supreme Court finds that the federal act is not compatible with the ECHR, it does not apply the act.
 iii. Limited constitutional review which is a particularity of the Swiss political system also encompasses cantonal acts and ordinances: The Federal Supreme Court is not empowered to review cantonal acts and ordinances as to their compatibility with the fundamental rights guaranteed by the Federal Constitution.
@@ -4984,7 +4984,7 @@
 iv. Im Nebenstrafrecht gibt es mehr Doppelspurigkeiten als im Kernstrafrecht. Es gibt im Nebenstrafrecht mehr Doppelspurigkeiten als im Kernstrafrecht.</t>
   </si>
   <si>
-    <t>The Swiss Code of Obligations is governed by different principles. Please indicate whether the following statements are correct:
+    <t>The Swiss Code of Obligations is governed by different principles. Please indicate which of the following statements are correct:
 i. According to the principle of will, the interpretation of a contract is based on the common intention of the parties, therefore has in a first step to be interpreted subjectively.
 ii. Swiss Company Law is governed by the freedom to create any kind of company.
 iii. Freedom of Contract is a concept inherent to Swiss Contract Law.
@@ -5184,7 +5184,7 @@
 v. Kurt ist für die Fahrt nur gemäss Art. 19a Ziff. 1 BetmG strafbar, da es ihm nur um seinen Eigenkonsum ging.</t>
   </si>
   <si>
-    <t>Marcus and Susanne are married and live in Zurich (Canton of Zurich). Both work in Zurich. Marcus is a high school teacher, Susanne works as a market analyst for a Swiss bank. They have some questions regarding the tax return they have to complete for the income tax 2018. Please indicate whether the following statements are correct:
+    <t>Marcus and Susanne are married and live in Zurich (Canton of Zurich). Both work in Zurich. Marcus is a high school teacher, Susanne works as a market analyst for a Swiss bank. They have some questions regarding the tax return they have to complete for the income tax 2018. Please indicate which of the following statements are correct:
 i. On the federal level, Marcus and Susanne can choose whether they want to be jointly or separately assessed and taxed.
 ii. On the cantonal level, Marcus and Susanne are subjects to the net wealth tax. The applicable net wealth tax rate of the Canton of Zurich amounts to 2.3 ‰ whereas the applicable net wealth tax rate of the Canton of Zug would amount to 1.0 ‰. They are of the opinion that these different tax rates infringe the Federal Constitution.
 iii. In spring, Susanne worked for 3 month for the bank's Geneva office (Canton of Geneva). Her entire income from employment that she earned in 2018 is still taxable in the Canton of Zurich.
@@ -5288,7 +5288,7 @@
 iv. Einkommen, welches nicht in der Schweiz erzielt wird, ist steuerrechtlich unbedeutend, wenn der Steuerpflichtige lediglich aufgrund wirtschaftlicher Zugehörigkeit steuerpflichtig ist.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements are correct.
+    <t>Please indicate which of the following statements are correct.
  Swiss administrative law cases are found …:
 i. ... only where federal law is applied.
 ii. ... only where cantonal law is applied.
@@ -5332,7 +5332,7 @@
 iv. Die geschützten Rechtsgüter des Kern- und Nebenstrafrechts überschneiden sich in vielen Bereichen. Die Aussage über die Unterschiede des Kern- und Nebenstrafrechts ist richtig.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements about substantive criminal law in Switzerland are correct:
+    <t>Please indicate which of the following statements about substantive criminal law in Switzerland are correct:
 i. The substantive criminal law system allows for the imposition of sentences and measures. However, they cannot be imposed on an offender simultaneously, partly because their underlying aims (retribution and prevention, respectively) are so different.
 ii. The Swiss Criminal Code, as well as laying down substantive criminal offences, provides the rules on the territorial application of the Swiss criminal law.
 iii. The Swiss Criminal Code contains all of the substantive criminal offences that exist in Switzerland.
@@ -5420,7 +5420,7 @@
 iv. Der Aufschub eines ausgesprochenen Freiheitsentzugs ist nur bei gleichzeitig angeordneter Unterbringung möglich.</t>
   </si>
   <si>
-    <t>Part 4 of the Swiss Civil Code contains rules regarding, among others, ownership, limited rights in rem, possession. Please indicate whether the following statements concerning property law are correct:
+    <t>Part 4 of the Swiss Civil Code contains rules regarding, among others, ownership, limited rights in rem, possession. Please indicate which of the following statements concerning property law are correct:
 i. More than one person is able to possess the same chattel at the same time.
 ii. According to Art. 714 I SCC, transfer of chattel ownership requires the delivery of possession to the acquirer.
 iii. Swiss property law does not follow a strict principle of numerus clausus of rights in rem.
@@ -5466,7 +5466,7 @@
 v. Mit den organischen und anorganischen Abzügen wird der objektiven Leistungsfähigkeit der Steuerpflichtigen Rechnung getragen.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements about real securities – for example, a pledge on moveable property (pignus) – are correct:
+    <t>Please indicate which of the following statements about real securities – for example, a pledge on moveable property (pignus) – are correct:
 i. In all European legal systems, real securities follow the principle of ‘accessority’ without exception.
 ii. In Roman law, the existence of real securities depended on the existence of the secured debt for their effective constitution: that is to say, they followed the principle of ‘genetic’ accessority.
 iii. Under Roman law, real securities tended to be extinguished together with the credit only if the credit was extinguished with satisfaction of the creditor's interests.
@@ -5481,7 +5481,7 @@
 iv. The capacity of judgment is not determined abstractly, but in light of each legal transaction or event taking place.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements about legal sociology are correct:
+    <t>Please indicate which of the following statements about legal sociology are correct:
 i. A legal sociologist’s perspective on law is interdisciplinary and aims at improving the law‘s mechanisms for the sake of society.
 ii. Legal science as a sub-domain of Sociology is well suited to reveal the difference between „is“ and „ought“.
 iii. As opposed to positivistic sciences, the method of law is objective and value-neutral.
@@ -5539,7 +5539,7 @@
 iv. Um die Autolenker in den Irrtum zu versetzen, es fänden Radarmessungen statt, und so die Kinder auf dem gefährlichen Schulweg zu schützen, stellte Kathrin an einer besonders exponierten Stelle eine selbstgestaltete Tafel "Achtung Radar" auf.</t>
   </si>
   <si>
-    <t>Nullity and defeasibility of a contract are two different concepts. Please indicate whether the following statements are correct:
+    <t>Nullity and defeasibility of a contract are two different concepts. Please indicate which of the following statements are correct:
 i. Diego sells Armando his dog. But that dog is not available: it had died one week before the contract was concluded. That is a contract with an impossible content and therefore it is null/void.
 ii. A contract for the sale of immovable property is only valid if it was done as a public deed (Art. 216 para. 1 CO).
 iii. Armando sells a painting from Van Gogh to Diego. It turns out that the painting is a falsification. Diego can successfully defeat that contract within one year of discovery of the error, because of fundamental error.
@@ -5692,7 +5692,7 @@
 iv. In 1866, Gustave Moynier wrote Das moderne Kriegsrecht (The Modern Law of War).</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements about criminal procedure in Switzerland are correct:
+    <t>Please indicate which of the following statements about criminal procedure in Switzerland are correct:
 i. After the prosecution investigation, the majority of criminal cases proceed to be heard by a court.
 ii. The accused must be represented by a lawyer after the first court hearing: the defence lawyer may be appointed by the prosecutor at this stage.
 iii. The prosecution and the police are equally in charge of the investigation, and both have the duty to investigate the incriminatory and exculpatory evidence against the accused with equal care.
@@ -5700,7 +5700,7 @@
 v. The private claimant can request a specific sentence for the accused and can challenge the prosecution’s decision to drop any charges.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements are correct.
+    <t>Please indicate which of the following statements are correct.
  Swiss administrative law cases are found …:
 i. ... before the Swiss Supreme Court.
 ii. ... only where cantonal law is applied.
@@ -6017,7 +6017,7 @@
 iv. The fight of the Swiss women for equal treatment with respect to political rights was won as late as 1971 (federal level) and 1990 (canton of Appenzell Innerrhoden). Before, women could not participate in elections and referenda.</t>
   </si>
   <si>
-    <t>Anne lives in Zurich (Canton of Zurich) and works as a law clerk in Bern (Canton of Bern). She commutes daily to Bern. She would like to know whether the different items of income she earned in 2017 are subject to the federal and/or cantonal income taxes. Please indicate whether the following statements are correct:
+    <t>Anne lives in Zurich (Canton of Zurich) and works as a law clerk in Bern (Canton of Bern). She commutes daily to Bern. She would like to know whether the different items of income she earned in 2017 are subject to the federal and/or cantonal income taxes. Please indicate which of the following statements are correct:
 i. Anne inherited a higher amount of money from her deceased uncle, who also lived in the Canton of Zurich. She has to pay federal income tax and cantonal inheritance tax on the inheritance.
 ii. Anne derived dividends from a participation in a French company. The dividends are exempted from Swiss federal and cantonal income taxes.
 iii. Anne owns a cottage in the mountains, situated in the Canton of Nidwalden. The rental income derived from this cottage is subject to the federal income tax and the income tax of the Canton of Nidwalden.
@@ -6143,7 +6143,7 @@
 iv. Der Strafbefehl hätte A persönlich ausgehändigt werden müssen.</t>
   </si>
   <si>
-    <t>Coniuratio as a device to create legal rules was of special importance in Swiss Legal Tradition. Please indicate whether the following statements are correct:
+    <t>Coniuratio as a device to create legal rules was of special importance in Swiss Legal Tradition. Please indicate which of the following statements are correct:
 i. Coniuratio was basically the legal device, which stood at the beginning of the Swiss confederation.
 ii. Coniuratio was based on the idea of the binding force of an oath.
 iii. By ways of coniuratio municipal laws could be issued and enacted.
@@ -6216,7 +6216,7 @@
 iv. Schiedsgerichtsklauseln sind gemäss chinesischem Recht in Verträgen mit ausländischen Parteien unzulässig;</t>
   </si>
   <si>
-    <t>Human rights are of foundational importance for the current civilisation of law. Please indicate whether the following statements about human rights are correct:
+    <t>Human rights are of foundational importance for the current civilisation of law. Please indicate which of the following statements about human rights are correct:
 i. Normative principles like justice and solidarity are regarded as key building blocks in contemporary justifications of human rights.
 ii. According to some, a theory of universal human goods plays a central role in the theory of human rights.
 iii. Human rights can only be based on religious faith. There is consequently no point of methodological secularism.
@@ -6639,7 +6639,7 @@
 iv. Unterhalb des massgeblichen Grenzwerts hat der fehlbare Lenker stets einen Anspruch darauf, dass ihm die Erledigung seiner Verfehlung im Ordnungsbussenverfahren angeboten wird. Unterhalb des massgeblichen Grenzwerts hat der fehlbare Lenker stets einen Anspruch darauf, dass ihm die Erledigung seiner Verfehlung im Ordnungsbussenverfahren angeboten wird.</t>
   </si>
   <si>
-    <t>The Second Division of the Swiss Code of Obligations covers types of contractual relationship. Please indicate whether the following statements are correct:
+    <t>The Second Division of the Swiss Code of Obligations covers types of contractual relationship. Please indicate which of the following statements are correct:
 i. The simple agency contract is the traditional type of contract governing activities of professionals like doctors or lawyers.
 ii. Compensation (rent) is compulsory in order for a contract to be characterised as a lease.
 iii. The essential characteristics of a contract for work and services are the contractor’s duty to provide a certain result in the form of the agreed outcome.
@@ -6670,7 +6670,7 @@
 v. Bei der rechtsformwechselnden Umwandlung werden die Rechtsverhältnisse und damit auch die Aktiven und Verbindlichkeiten von einer Gesellschaft auf eine andere Gesellschaft übertragen.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements are correct: Roman Law …
+    <t>Please indicate which of the following statements are correct: Roman Law …
 i. … grew for centuries through the interpretation of purely private legal experts.
 ii. … never knew any sort of official compilation.
 iii. … was mostly based on unwritten customs, applied with discretional freedom for each case by the judge.
@@ -6948,7 +6948,7 @@
 iv. Ausländische Unternehmen dürfen nur noch Minderheitsanteile an chinesischen Unternehmen erwerben;</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements are correct. The principle of proportionality...:
+    <t>Please indicate which of the following statements are correct. The principle of proportionality...:
 i. ... is relevant for all forms of administrative action.
 ii. ... is applicable only to cases involving taxes.
 iii. ... is regulated in Article 5 of the Swiss Constitution.
@@ -7111,7 +7111,7 @@
 iv. Der Strafrahmen ist 3 Tage bis 15 Jahre Freiheitsstrafe oder 180 bis 360 Tagessätze Geldstrafe.</t>
   </si>
   <si>
-    <t>Coniuratio as a device to create legal rules was of special importance in Swiss Legal Tradition. Please indicate whether the following statements are correct:
+    <t>Coniuratio as a device to create legal rules was of special importance in Swiss Legal Tradition. Please indicate which of the following statements are correct:
 i. Coniuratio was based on the idea of the binding force of an oath.
 ii. By ways of coniuratio municipal laws could be issued and enacted.
 iii. Coniuratio was basically the legal device, which stood at the beginning of the Swiss confederation.
@@ -7162,7 +7162,7 @@
 iv. Geldwerte Leistungen, die Anteilsinhaber im Rahmen einer steuerneutralen Spaltung nach Art. 61 Abs. 1 lit. b DBG realisieren, werden nicht als verdeckte Gewinnausschüttung angesehen und unterliegen auf Stufe der Anteilsinhaber folglich auch nicht der Einkommenssteuer.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements concerning Switzerland’s direct democracy are correct:
+    <t>Please indicate which of the following statements concerning Switzerland’s direct democracy are correct:
 i. With a popular initiative, it is possible to request a general vote on a proposal to include a new provision into the Constitution. For this purpose, it is necessary to collect 100’000 signatures.
 ii. Referenda against the adoption of new acts by the Federal Assembly (Parliament) are advisory, i.e. the Federal Assembly must take the result into account, but it is not bound by it.
 iii. The option for 50’000 citizens to request a vote on the planned enactment of a new act modifies the representative system. It is an important instrument of control of, and opposition against, the Federal Assembly, and it is one of the reasons why the Swiss democracy is often referred to as a “consensus-oriented democracy”.
@@ -7214,7 +7214,7 @@
 iv. In legal sociology it is recommended to use incompatible theories simultaneously, which do not distinguish between “is” and “ought”.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements concerning fundamental rights are correct:
+    <t>Please indicate which of the following statements concerning fundamental rights are correct:
 i. The Federal Constitution contains an impressive catalogue of fundamental rights. This catalogue is based on the European Convention on Human Rights (ECHR), but it also contains additional rights, which are not guaranteed by the ECHR, such as economic freedom.
 ii. It is problematic when a popular initiative, such as the initiative “against the construction of minarets” (2009), is incompatible with the ECHR. Nonetheless, it is possible to propose such an initiative, and it is submitted to the vote of the people and the cantons, if the necessary 100’000 signatures are collected.
 iii. Limited constitutional review which is a particularity of the Swiss political system also encompasses cantonal acts and ordinances: The Federal Supreme Court is not empowered to review cantonal acts and ordinances as to their compatibility with the fundamental rights guaranteed by the Federal Constitution.
@@ -7376,7 +7376,7 @@
 iv. Personen, die in der Schweiz als Grenzgänger einer unselbständigen Erwerbstätigkeit nachgehen, aber im Ausland ihren Wohnsitz haben, unterliegen einer Quellensteuer.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements about real securities – for example, a pledge on moveable property (pignus) – are correct:
+    <t>Please indicate which of the following statements about real securities – for example, a pledge on moveable property (pignus) – are correct:
 i. Real securities followed the principle of ‘accessority’ more radically in Roman law than they do today in Swiss law.
 ii. In Swiss law, real securities tend to be extinguished together with the credit only if the credit is extinguished with satisfaction of the creditor's interests.
 iii. In Roman law, the existence of real securities depended on the existence of the secured debt for their effective constitution: that is to say, they followed the principle of ‘genetic’ accessority.
@@ -7579,7 +7579,7 @@
 v. Die Besteuerung von Gratisaktien erfolgt aus steuersystematischen Gründen. Bei der Ausgabe werden Gewinn- oder Kapitaleinlagereserven in steuerfrei rückzahlbaren Nennwert umgewandelt.</t>
   </si>
   <si>
-    <t>Please indicate whether the following statements about substantive criminal law in Switzerland are correct:
+    <t>Please indicate which of the following statements about substantive criminal law in Switzerland are correct:
 i. The Swiss Criminal Code of 1937 was heavily influenced by the ideas of Carl Stooss, to the extent that he is often perceived as the “father” of the Swiss Criminal Code.
 ii. The Swiss Criminal Code contains all of the substantive criminal offences that exist in Switzerland.
 iii. The substantive criminal law system allows for the imposition of sentences and measures. However, they cannot be imposed on an offender simultaneously, partly because their underlying aims (retribution and prevention, respectively) are so different.
@@ -18597,7 +18597,7 @@
         <v>2201</v>
       </c>
       <c r="L111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -19091,7 +19091,7 @@
         <v>2214</v>
       </c>
       <c r="L124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -22359,7 +22359,7 @@
         <v>2300</v>
       </c>
       <c r="L210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -30909,7 +30909,7 @@
         <v>2525</v>
       </c>
       <c r="L435" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -33265,7 +33265,7 @@
         <v>2587</v>
       </c>
       <c r="L497" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:12">
@@ -34367,7 +34367,7 @@
         <v>2616</v>
       </c>
       <c r="L526" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:12">
@@ -35317,7 +35317,7 @@
         <v>2641</v>
       </c>
       <c r="L551" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:12">
@@ -36571,7 +36571,7 @@
         <v>2674</v>
       </c>
       <c r="L584" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:12">
@@ -36647,7 +36647,7 @@
         <v>2676</v>
       </c>
       <c r="L586" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:12">
@@ -37787,7 +37787,7 @@
         <v>2706</v>
       </c>
       <c r="L616" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:12">
@@ -45691,7 +45691,7 @@
         <v>2914</v>
       </c>
       <c r="L824" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:12">
@@ -46451,7 +46451,7 @@
         <v>2934</v>
       </c>
       <c r="L844" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:12">
@@ -47439,7 +47439,7 @@
         <v>2960</v>
       </c>
       <c r="L870" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:12">
@@ -48199,7 +48199,7 @@
         <v>2980</v>
       </c>
       <c r="L890" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:12">
@@ -50023,7 +50023,7 @@
         <v>3028</v>
       </c>
       <c r="L938" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:12">
@@ -51049,7 +51049,7 @@
         <v>3055</v>
       </c>
       <c r="L965" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:12">
@@ -53405,7 +53405,7 @@
         <v>3117</v>
       </c>
       <c r="L1027" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028" spans="1:12">
